--- a/results/MLP_tree/hidden_size_256/s_MLP_tree_t_simglucose_data_insilico_seed_8_2024-05-30_PH_60/output.xlsx
+++ b/results/MLP_tree/hidden_size_256/s_MLP_tree_t_simglucose_data_insilico_seed_8_2024-05-30_PH_60/output.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.022441976</t>
+          <t>0.013926608</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.10472395</t>
+          <t>0.087468594</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -515,25 +515,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.016756492</t>
+          <t>0.02721856</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.08744769</t>
+          <t>0.09786026</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -547,12 +547,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.07856283</t>
+          <t>0.091666125</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.19519497</t>
+          <t>0.21346602</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -579,12 +579,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.08888475</t>
+          <t>0.088000394</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.2160085</t>
+          <t>0.21472727</t>
         </is>
       </c>
       <c r="D5" t="n">
